--- a/messages/IntentError.xlsx
+++ b/messages/IntentError.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>查找小组自习室 E211</t>
   </si>
@@ -36,6 +36,61 @@
   </si>
   <si>
     <t>Search</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>预约</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> E210 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>明天上午</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>点</t>
+    </r>
+  </si>
+  <si>
+    <t>Oder</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AskIife</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AskInfo</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -43,7 +98,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -64,6 +119,19 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -86,11 +154,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -371,15 +440,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.25" customWidth="1"/>
+    <col min="1" max="1" width="25.375" customWidth="1"/>
     <col min="2" max="2" width="15.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -400,6 +469,22 @@
       </c>
       <c r="C2" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/messages/IntentError.xlsx
+++ b/messages/IntentError.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="成功" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
   <si>
     <t>查找小组自习室 E211</t>
   </si>
@@ -93,12 +94,34 @@
     <t>AskInfo</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>总务处电话</t>
+  </si>
+  <si>
+    <t>AskInfo</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>交大有几个副校长</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AskPath</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>从新图到到上院怎么走</t>
+  </si>
+  <si>
+    <t>AskLesson</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -133,6 +156,11 @@
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -154,12 +182,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -440,10 +469,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -487,9 +516,55 @@
         <v>8</v>
       </c>
     </row>
+    <row r="5" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="21.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>